--- a/B029_地価の予想.xlsx
+++ b/B029_地価の予想.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t xml:space="preserve">概要</t>
   </si>
@@ -251,7 +251,10 @@
     <t xml:space="preserve">地価</t>
   </si>
   <si>
-    <t xml:space="preserve">Knn</t>
+    <t xml:space="preserve">Resurt_K_nearest_Neighbors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance</t>
   </si>
   <si>
     <r>
@@ -276,9 +279,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Resurt_K_nearest_Neighbors</t>
-  </si>
-  <si>
     <t xml:space="preserve">メソッド</t>
   </si>
   <si>
@@ -400,18 +400,9 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">A地点からの距離</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">を配列にいれる</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A地点からの距離を配列にいれる</t>
     </r>
   </si>
   <si>
@@ -525,6 +516,7 @@
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">p_i</t>
     </r>
@@ -534,6 +526,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">の平均を算出する。</t>
     </r>
@@ -546,7 +539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -586,18 +579,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans CJK JP"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Noto Serif CJK JP"/>
       <family val="2"/>
     </font>
@@ -609,7 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Noto Serif CJK JP"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -699,9 +680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -710,8 +691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8361720" y="1322640"/>
-          <a:ext cx="4297680" cy="3233880"/>
+          <a:off x="8362440" y="1322640"/>
+          <a:ext cx="4297320" cy="3233520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1208,9 +1189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>109080</xdr:colOff>
+      <xdr:colOff>108720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,8 +1204,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8421480" y="18360"/>
-          <a:ext cx="3520800" cy="1126800"/>
+          <a:off x="8421840" y="18360"/>
+          <a:ext cx="3520800" cy="1126440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1246,8 +1227,8 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1289,9 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0"/>
-    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
         <v>6</v>
@@ -1370,17 +1349,13 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,10 +1368,10 @@
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
